--- a/data/mapping_pg.xlsx
+++ b/data/mapping_pg.xlsx
@@ -1,44 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\host.lan\Data\files\tasks\6222a106-fde4-49e8-9094-3c2a818fcd63\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Work\work-script\dmc-finder-project\dmc finder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{874F39C1-64F0-4134-8FC4-C656D3F09DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E59DFC8-CCFB-452E-9A5C-0344978A8336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="8">
-  <si>
-    <t>College Roll No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniveRSITY Roll </t>
-  </si>
   <si>
     <t>Class</t>
   </si>
@@ -57,11 +39,17 @@
   <si>
     <t>PG Yoga 1st Sem</t>
   </si>
+  <si>
+    <t>Roll No.</t>
+  </si>
+  <si>
+    <t>Exam Roll No.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,7 +141,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,32 +420,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>2252127002</v>
       </c>
@@ -466,10 +453,10 @@
         <v>2025175331</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2252127003</v>
       </c>
@@ -477,10 +464,10 @@
         <v>2025175316</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2252127004</v>
       </c>
@@ -488,10 +475,10 @@
         <v>2025175318</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2252127005</v>
       </c>
@@ -499,10 +486,10 @@
         <v>2025175325</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2252127006</v>
       </c>
@@ -510,10 +497,10 @@
         <v>2025175321</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2252127007</v>
       </c>
@@ -521,10 +508,10 @@
         <v>2025175326</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2252127008</v>
       </c>
@@ -532,10 +519,10 @@
         <v>2025175327</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2252127009</v>
       </c>
@@ -543,10 +530,10 @@
         <v>2025175303</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2252127010</v>
       </c>
@@ -554,10 +541,10 @@
         <v>2025175322</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2252127011</v>
       </c>
@@ -565,10 +552,10 @@
         <v>2025175312</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2252127013</v>
       </c>
@@ -576,10 +563,10 @@
         <v>2025175320</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2252127014</v>
       </c>
@@ -587,10 +574,10 @@
         <v>2025175304</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2252127015</v>
       </c>
@@ -598,10 +585,10 @@
         <v>2025175306</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>2252127016</v>
       </c>
@@ -609,10 +596,10 @@
         <v>2025175315</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>2252127017</v>
       </c>
@@ -620,10 +607,10 @@
         <v>2025175314</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>2252127018</v>
       </c>
@@ -631,10 +618,10 @@
         <v>2025175308</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>2252127019</v>
       </c>
@@ -642,10 +629,10 @@
         <v>2025175311</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>2252127020</v>
       </c>
@@ -653,10 +640,10 @@
         <v>2025175323</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>2252127021</v>
       </c>
@@ -664,10 +651,10 @@
         <v>2025175319</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>2252127022</v>
       </c>
@@ -675,10 +662,10 @@
         <v>2025175313</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>2252127023</v>
       </c>
@@ -686,10 +673,10 @@
         <v>2025175307</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>2252127024</v>
       </c>
@@ -697,10 +684,10 @@
         <v>2025175332</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>2252127025</v>
       </c>
@@ -708,10 +695,10 @@
         <v>2025175309</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>2252127026</v>
       </c>
@@ -719,10 +706,10 @@
         <v>2025175305</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>2252127027</v>
       </c>
@@ -730,10 +717,10 @@
         <v>2025175317</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>2252127028</v>
       </c>
@@ -741,10 +728,10 @@
         <v>2025175324</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>2252127029</v>
       </c>
@@ -752,10 +739,10 @@
         <v>2025175329</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>2252127030</v>
       </c>
@@ -763,10 +750,10 @@
         <v>2025175328</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>2252127031</v>
       </c>
@@ -774,10 +761,10 @@
         <v>2025175301</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>2252127032</v>
       </c>
@@ -785,10 +772,10 @@
         <v>2025175330</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>2252127034</v>
       </c>
@@ -796,10 +783,10 @@
         <v>2025175302</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>2252127035</v>
       </c>
@@ -807,1514 +794,1514 @@
         <v>2025175310</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>2252136001</v>
       </c>
       <c r="B34" s="4">
         <v>2025154848</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C34" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>2252136002</v>
       </c>
       <c r="B35" s="4">
         <v>2025154849</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C35" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>2252136003</v>
       </c>
       <c r="B36" s="4">
         <v>2025154818</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>2252136004</v>
       </c>
       <c r="B37" s="4">
         <v>2025154838</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>2252136006</v>
       </c>
       <c r="B38" s="4">
         <v>2025154830</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>2252136008</v>
       </c>
       <c r="B39" s="4">
         <v>2025154845</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>2252136009</v>
       </c>
       <c r="B40" s="4">
         <v>2025154842</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>2252136010</v>
       </c>
       <c r="B41" s="4">
         <v>2025154828</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C41" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>2252136011</v>
       </c>
       <c r="B42" s="4">
         <v>2025154839</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>2252136012</v>
       </c>
       <c r="B43" s="4">
         <v>2025154869</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C43" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>2252136015</v>
       </c>
       <c r="B44" s="4">
         <v>2025154847</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>2252136016</v>
       </c>
       <c r="B45" s="4">
         <v>2025154801</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C45" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>2252136017</v>
       </c>
       <c r="B46" s="4">
         <v>2025154853</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C46" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>2252136018</v>
       </c>
       <c r="B47" s="4">
         <v>2025154863</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C47" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>2252136019</v>
       </c>
       <c r="B48" s="4">
         <v>2025154817</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C48" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>2252136020</v>
       </c>
       <c r="B49" s="4">
         <v>2025154858</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C49" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>2252136021</v>
       </c>
       <c r="B50" s="4">
         <v>2025154864</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C50" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>2252136022</v>
       </c>
       <c r="B51" s="4">
         <v>2025154860</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C51" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>2252136023</v>
       </c>
       <c r="B52" s="4">
         <v>2025154844</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C52" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>2252136026</v>
       </c>
       <c r="B53" s="4">
         <v>2025154814</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C53" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>2252136027</v>
       </c>
       <c r="B54" s="4">
         <v>2025154832</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C54" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>2252136028</v>
       </c>
       <c r="B55" s="4">
         <v>2025154815</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C55" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>2252136029</v>
       </c>
       <c r="B56" s="4">
         <v>2025154804</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C56" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>2252136030</v>
       </c>
       <c r="B57" s="4">
         <v>2025154823</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C57" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>2252136031</v>
       </c>
       <c r="B58" s="4">
         <v>2025154843</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C58" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>2252136032</v>
       </c>
       <c r="B59" s="4">
         <v>2025154812</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C59" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>2252136033</v>
       </c>
       <c r="B60" s="4">
         <v>2025154867</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C60" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>2252136034</v>
       </c>
       <c r="B61" s="4">
         <v>2025154859</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C61" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>2252136035</v>
       </c>
       <c r="B62" s="4">
         <v>2025154865</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C62" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>2252136036</v>
       </c>
       <c r="B63" s="4">
         <v>2025154806</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C63" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>2252136037</v>
       </c>
       <c r="B64" s="4">
         <v>2025154851</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C64" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>2252136038</v>
       </c>
       <c r="B65" s="4">
         <v>2025154825</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C65" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>2252136039</v>
       </c>
       <c r="B66" s="4">
         <v>2025154819</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C66" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>2252136040</v>
       </c>
       <c r="B67" s="4">
         <v>2025154811</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C67" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>2252136041</v>
       </c>
       <c r="B68" s="4">
         <v>2025154807</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C68" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>2252136045</v>
       </c>
       <c r="B69" s="4">
         <v>2025154834</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C69" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>2252136046</v>
       </c>
       <c r="B70" s="4">
         <v>2025154861</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C70" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>2252136047</v>
       </c>
       <c r="B71" s="4">
         <v>2025154866</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C71" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>2252136048</v>
       </c>
       <c r="B72" s="4">
         <v>2025154836</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C72" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>2252136049</v>
       </c>
       <c r="B73" s="4">
         <v>2025154829</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C73" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>2252136050</v>
       </c>
       <c r="B74" s="4">
         <v>2025154856</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C74" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>2252136051</v>
       </c>
       <c r="B75" s="4">
         <v>2025154852</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C75" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>2252136052</v>
       </c>
       <c r="B76" s="4">
         <v>2025154809</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C76" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>2252136053</v>
       </c>
       <c r="B77" s="4">
         <v>2025154822</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C77" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>2252136054</v>
       </c>
       <c r="B78" s="4">
         <v>2025154857</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C78" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>2252136056</v>
       </c>
       <c r="B79" s="4">
         <v>2025154833</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C79" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>2252136057</v>
       </c>
       <c r="B80" s="4">
         <v>2025154837</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C80" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>2252136059</v>
       </c>
       <c r="B81" s="4">
         <v>2025154824</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C81" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>2252136060</v>
       </c>
       <c r="B82" s="4">
         <v>2025154820</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C82" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>2252111001</v>
       </c>
       <c r="B83" s="4">
         <v>2025162156</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C83" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>2252111002</v>
       </c>
       <c r="B84" s="4">
         <v>2025162145</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C84" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>2252111003</v>
       </c>
       <c r="B85" s="4">
         <v>2025162124</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C85" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>2252111004</v>
       </c>
       <c r="B86" s="4">
         <v>2025162131</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C86" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>2252111007</v>
       </c>
       <c r="B87" s="4">
         <v>2025162137</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C87" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>2252111008</v>
       </c>
       <c r="B88" s="4">
         <v>2025162172</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C88" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>2252111009</v>
       </c>
       <c r="B89" s="4">
         <v>2025162120</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C89" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>2252111010</v>
       </c>
       <c r="B90" s="4">
         <v>2025162167</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C90" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>2252111011</v>
       </c>
       <c r="B91" s="4">
         <v>2025162187</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C91" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>2252111012</v>
       </c>
       <c r="B92" s="4">
         <v>2025162178</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C92" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>2252111013</v>
       </c>
       <c r="B93" s="4">
         <v>2025162160</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C93" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>2252111014</v>
       </c>
       <c r="B94" s="4">
         <v>2025162175</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C94" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>2252111015</v>
       </c>
       <c r="B95" s="4">
         <v>2025162101</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C95" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>2252111016</v>
       </c>
       <c r="B96" s="4">
         <v>2025162123</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C96" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>2252111017</v>
       </c>
       <c r="B97" s="4">
         <v>2025162118</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C97" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>2252111018</v>
       </c>
       <c r="B98" s="4">
         <v>2025162132</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C98" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>2252111019</v>
       </c>
       <c r="B99" s="4">
         <v>2025162180</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C99" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>2252111020</v>
       </c>
       <c r="B100" s="4">
         <v>2025162150</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C100" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>2252111021</v>
       </c>
       <c r="B101" s="4">
         <v>2025162182</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C101" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>2252111022</v>
       </c>
       <c r="B102" s="4">
         <v>2025162138</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C102" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>2252111024</v>
       </c>
       <c r="B103" s="4">
         <v>2025162114</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C103" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>2252111025</v>
       </c>
       <c r="B104" s="4">
         <v>2025162153</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C104" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>2252111026</v>
       </c>
       <c r="B105" s="4">
         <v>2025162111</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C105" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>2252111027</v>
       </c>
       <c r="B106" s="4">
         <v>2025162139</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C106" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>2252111028</v>
       </c>
       <c r="B107" s="4">
         <v>2025162136</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C107" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>2252111029</v>
       </c>
       <c r="B108" s="4">
         <v>2025162126</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C108" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>2252111030</v>
       </c>
       <c r="B109" s="4">
         <v>2025162125</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C109" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>2252111031</v>
       </c>
       <c r="B110" s="4">
         <v>2025162115</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C110" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>2252111032</v>
       </c>
       <c r="B111" s="4">
         <v>2025162171</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C111" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>2252111033</v>
       </c>
       <c r="B112" s="4">
         <v>2025162157</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C112" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>2252111034</v>
       </c>
       <c r="B113" s="4">
         <v>2025162121</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C113" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>2252111035</v>
       </c>
       <c r="B114" s="4">
         <v>2025162179</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C114" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>2252111036</v>
       </c>
       <c r="B115" s="4">
         <v>2025162155</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C115" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>2252111039</v>
       </c>
       <c r="B116" s="4">
         <v>2025162134</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C116" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>2252111040</v>
       </c>
       <c r="B117" s="4">
         <v>2025162154</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C117" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>2252111041</v>
       </c>
       <c r="B118" s="4">
         <v>2025162168</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C118" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>2252111042</v>
       </c>
       <c r="B119" s="4">
         <v>2025162174</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C119" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>2252111043</v>
       </c>
       <c r="B120" s="4">
         <v>2025162108</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C120" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>2252111044</v>
       </c>
       <c r="B121" s="4">
         <v>2025162149</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C121" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>2252111045</v>
       </c>
       <c r="B122" s="4">
         <v>2025162110</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C122" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>2252111046</v>
       </c>
       <c r="B123" s="4">
         <v>2025162116</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C123" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>2252111048</v>
       </c>
       <c r="B124" s="4">
         <v>2025162163</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C124" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>2252111049</v>
       </c>
       <c r="B125" s="4">
         <v>2025162169</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C125" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>2252111050</v>
       </c>
       <c r="B126" s="4">
         <v>2025162176</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C126" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>2252111051</v>
       </c>
       <c r="B127" s="4">
         <v>2025162104</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C127" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>2252111054</v>
       </c>
       <c r="B128" s="4">
         <v>2025162184</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C128" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>2252111055</v>
       </c>
       <c r="B129" s="4">
         <v>2025162152</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C129" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>2252111056</v>
       </c>
       <c r="B130" s="4">
         <v>2025162130</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C130" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>2252111058</v>
       </c>
       <c r="B131" s="4">
         <v>2025162148</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C131" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>2252111059</v>
       </c>
       <c r="B132" s="4">
         <v>2025162185</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C132" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>2252112001</v>
       </c>
       <c r="B133" s="4">
         <v>2025204709</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C133" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>2252112002</v>
       </c>
       <c r="B134" s="4">
         <v>2025204701</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C134" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>2252112003</v>
       </c>
       <c r="B135" s="4">
         <v>2025204712</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C135" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>2252112004</v>
       </c>
       <c r="B136" s="4">
         <v>2025204708</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C136" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>2252112005</v>
       </c>
       <c r="B137" s="4">
         <v>2025204702</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C137" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>2252112006</v>
       </c>
       <c r="B138" s="4">
         <v>2025204706</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C138" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>2252112007</v>
       </c>
       <c r="B139" s="4">
         <v>2025204704</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C139" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>2252112008</v>
       </c>
       <c r="B140" s="4">
         <v>2025204707</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C140" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>2252112009</v>
       </c>
       <c r="B141" s="4">
         <v>2025204703</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C141" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>2252112010</v>
       </c>
       <c r="B142" s="4">
         <v>2025204710</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C142" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <v>2252112011</v>
       </c>
       <c r="B143" s="4">
         <v>2025204705</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C143" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>2252112012</v>
       </c>
       <c r="B144" s="4">
         <v>2025204711</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C144" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <v>2252761001</v>
       </c>
       <c r="B145" s="4">
         <v>2025219010</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C145" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>2252761002</v>
       </c>
       <c r="B146" s="4">
         <v>2025219023</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C146" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <v>2252761003</v>
       </c>
       <c r="B147" s="4">
         <v>2025219003</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C147" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>2252761004</v>
       </c>
       <c r="B148" s="4">
         <v>2025219002</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C148" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <v>2252761005</v>
       </c>
       <c r="B149" s="4">
         <v>2025219014</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C149" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>2252761006</v>
       </c>
       <c r="B150" s="4">
         <v>2025219026</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C150" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
         <v>2252761007</v>
       </c>
       <c r="B151" s="4">
         <v>2025219009</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C151" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
         <v>2252761008</v>
       </c>
       <c r="B152" s="4">
         <v>2025219001</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C152" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <v>2252761009</v>
       </c>
       <c r="B153" s="4">
         <v>2025219013</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C153" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
         <v>2252761010</v>
       </c>
       <c r="B154" s="4">
         <v>2025219021</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C154" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
         <v>2252761011</v>
       </c>
       <c r="B155" s="4">
         <v>2025219022</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C155" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
         <v>2252761012</v>
       </c>
       <c r="B156" s="4">
         <v>2025219012</v>
       </c>
-      <c r="C156" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C156" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
         <v>2252761013</v>
       </c>
       <c r="B157" s="4">
         <v>2025219008</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C157" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
         <v>2252761014</v>
       </c>
       <c r="B158" s="4">
         <v>2025219007</v>
       </c>
-      <c r="C158" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C158" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
         <v>2252761015</v>
       </c>
       <c r="B159" s="4">
         <v>2025219016</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C159" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
         <v>2252761016</v>
       </c>
       <c r="B160" s="4">
         <v>2025219005</v>
       </c>
-      <c r="C160" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C160" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
         <v>2252761017</v>
       </c>
       <c r="B161" s="4">
         <v>2025219024</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C161" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
         <v>2252761018</v>
       </c>
       <c r="B162" s="4">
         <v>2025219017</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C162" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
         <v>2252761019</v>
       </c>
       <c r="B163" s="4">
         <v>2025219004</v>
       </c>
-      <c r="C163" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C163" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
         <v>2252761020</v>
       </c>
       <c r="B164" s="4">
         <v>2025219006</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C164" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
         <v>2252761021</v>
       </c>
       <c r="B165" s="4">
         <v>2025219015</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C165" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
         <v>2252761022</v>
       </c>
       <c r="B166" s="4">
         <v>2025219019</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C166" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
         <v>2252761023</v>
       </c>
       <c r="B167" s="4">
         <v>2025219011</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C167" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
         <v>2252761024</v>
       </c>
       <c r="B168" s="4">
         <v>2025219020</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C168" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
         <v>2252761025</v>
       </c>
       <c r="B169" s="4">
         <v>2025219025</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C169" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
         <v>2252761026</v>
       </c>
       <c r="B170" s="4">
         <v>2025219018</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>7</v>
+      <c r="C170" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
